--- a/biology/Botanique/Heliconia/Heliconia.xlsx
+++ b/biology/Botanique/Heliconia/Heliconia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconia est un genre de plantes à fleur originaire de l'Amérique tropicale et de certaines îles du Pacifique.
 Heliconia est le seul genre de la famille des Heliconiaceae qui compte entre 100 et 200 espèces, dont la plupart sont originaires de l'Amérique. De nombreuses espèces sont cultivées pour leurs inflorescences de couleurs vives et voyantes
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Heliconia dérive du grec Ἑλικών / Helikṓn littéralement « la montagne tortueuse », en référence au mont Hélicon massif montagneux de Béotie, en Grèce, culminant à 1 748 mètres, nom qui a pour racine grecque ἕλιξ / hélix, « spirale, zigzag », en référence à la forme des inflorescences de cette plante[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Heliconia dérive du grec Ἑλικών / Helikṓn littéralement « la montagne tortueuse », en référence au mont Hélicon massif montagneux de Béotie, en Grèce, culminant à 1 748 mètres, nom qui a pour racine grecque ἕλιξ / hélix, « spirale, zigzag », en référence à la forme des inflorescences de cette plante. 
 </t>
         </is>
       </c>
